--- a/Comparison/TabularData_Tucson.xlsx
+++ b/Comparison/TabularData_Tucson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_software_develops\MobilityPyro\MobilityInference\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5B181-D0BC-4E83-88FF-C7B9C2E8DC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9441C316-C5BF-48A7-BB85-198DD8F303B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="210" windowWidth="19080" windowHeight="11385" xr2:uid="{DFF856DA-7188-461B-930F-B12764E23B0B}"/>
+    <workbookView xWindow="2550" yWindow="2355" windowWidth="19080" windowHeight="11385" xr2:uid="{DFF856DA-7188-461B-930F-B12764E23B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>MVShop</t>
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>MVSchool</t>
+  </si>
+  <si>
+    <t>MVRel</t>
+  </si>
+  <si>
+    <t>FullSimpleShop</t>
+  </si>
+  <si>
+    <t>FullSimpleSchool</t>
+  </si>
+  <si>
+    <t>FullSimpleRel</t>
   </si>
 </sst>
 </file>
@@ -393,76 +408,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5558B0EE-7D3D-40A2-BB79-B74664D52AE3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1.5421644000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2.5874467000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.4042020000000002</v>
+      </c>
+      <c r="E2">
+        <v>128817</v>
+      </c>
+      <c r="F2">
+        <v>34545</v>
+      </c>
+      <c r="G2">
+        <v>20140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.533579</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3.1594829999999998</v>
+      </c>
+      <c r="D3">
+        <v>2.5421505</v>
+      </c>
+      <c r="E3">
+        <v>121096</v>
+      </c>
+      <c r="F3">
+        <v>43762</v>
+      </c>
+      <c r="G3">
+        <v>20144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1.5250587</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3.1929617000000001</v>
+      </c>
+      <c r="D4">
+        <v>2.518888</v>
+      </c>
+      <c r="E4">
+        <v>124579</v>
+      </c>
+      <c r="F4">
+        <v>48450</v>
+      </c>
+      <c r="G4">
+        <v>21204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.5376893</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3.4368846</v>
+      </c>
+      <c r="D5">
+        <v>2.5692400000000002</v>
+      </c>
+      <c r="E5">
+        <v>149957</v>
+      </c>
+      <c r="F5">
+        <v>61778</v>
+      </c>
+      <c r="G5">
+        <v>25158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1.5171133999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3.5622889999999998</v>
+      </c>
+      <c r="D6">
+        <v>2.4540549999999999</v>
+      </c>
+      <c r="E6">
+        <v>140201</v>
+      </c>
+      <c r="F6">
+        <v>73889</v>
+      </c>
+      <c r="G6">
+        <v>26386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1.5118734</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3.2299304000000002</v>
+      </c>
+      <c r="D7">
+        <v>2.4408690000000002</v>
+      </c>
+      <c r="E7">
+        <v>133063</v>
+      </c>
+      <c r="F7">
+        <v>59828</v>
+      </c>
+      <c r="G7">
+        <v>23364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1.5158503999999999</v>
+      </c>
+      <c r="C8">
+        <v>2.9414280000000002</v>
+      </c>
+      <c r="D8">
+        <v>2.3066274999999998</v>
+      </c>
+      <c r="E8">
+        <v>135658</v>
+      </c>
+      <c r="F8">
+        <v>37162</v>
+      </c>
+      <c r="G8">
+        <v>19664</v>
       </c>
     </row>
   </sheetData>
